--- a/xlsx/欧玛尔·海亚姆_intext.xlsx
+++ b/xlsx/欧玛尔·海亚姆_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>欧玛尔·海亚姆</t>
   </si>
@@ -29,7 +29,7 @@
     <t>波斯文</t>
   </si>
   <si>
-    <t>政策_政策_政治學_欧玛尔·海亚姆</t>
+    <t>政策_政策_政治学_欧玛尔·海亚姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%8C%96</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE</t>
   </si>
   <si>
-    <t>什葉派</t>
+    <t>什叶派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E8%B5%AB</t>
   </si>
   <si>
-    <t>巴爾赫</t>
+    <t>巴尔赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E8%B5%AB</t>
   </si>
   <si>
-    <t>謝赫</t>
+    <t>谢赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%8E%9B%E7%9B%AE</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%9C%AD%E5%A7%86%C2%B7%E7%A9%86%E7%88%BE%E5%85%8B</t>
   </si>
   <si>
-    <t>尼札姆·穆爾克</t>
+    <t>尼札姆·穆尔克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%A1%91%C2%B7%E6%B2%99%E5%B7%B4</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%96%A9%E8%BE%9B%E6%B4%BE</t>
   </si>
   <si>
-    <t>阿薩辛派</t>
+    <t>阿萨辛派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E6%9F%B1%E5%B8%9D%E5%9B%BD</t>
@@ -161,25 +161,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%9A%E5%A4%A9%E5%B1%A0%E9%BE%8D%E8%A8%98</t>
   </si>
   <si>
-    <t>倚天屠龍記</t>
+    <t>倚天屠龙记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>數學家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%95%B8</t>
   </si>
   <si>
-    <t>代數</t>
+    <t>代数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%A1%E6%96%B9%E7%A8%8B</t>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -227,7 +224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -251,13 +248,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1377,7 +1374,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1403,10 +1400,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1432,10 +1429,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1461,10 +1458,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1490,10 +1487,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1519,10 +1516,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1548,10 +1545,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1577,10 +1574,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1606,10 +1603,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1635,10 +1632,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1664,10 +1661,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1693,10 +1690,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1722,10 +1719,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1751,10 +1748,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1780,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1809,10 +1806,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1838,10 +1835,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -1867,10 +1864,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1896,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>

--- a/xlsx/欧玛尔·海亚姆_intext.xlsx
+++ b/xlsx/欧玛尔·海亚姆_intext.xlsx
@@ -29,7 +29,7 @@
     <t>波斯文</t>
   </si>
   <si>
-    <t>政策_政策_政治學_欧玛尔·海亚姆</t>
+    <t>体育运动_体育运动_伊朗_欧玛尔·海亚姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E5%8C%96</t>
